--- a/old_database/crypto/library/library_314.xlsx
+++ b/old_database/crypto/library/library_314.xlsx
@@ -49,7 +49,7 @@
     <t>04.15.10</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_314</t>
   </si>
   <si>
     <t>04.18.10</t>

--- a/old_database/crypto/library/library_314.xlsx
+++ b/old_database/crypto/library/library_314.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="38">
   <si>
     <t xml:space="preserve">s2cDNADate</t>
   </si>
@@ -43,10 +43,7 @@
     <t xml:space="preserve">index1Sequence</t>
   </si>
   <si>
-    <t xml:space="preserve">index2Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">index2Sequence</t>
+    <t xml:space="preserve">libraryProtocol</t>
   </si>
   <si>
     <t xml:space="preserve">04.14.10</t>
@@ -59,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">retrofit_index5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SolexaPrep</t>
   </si>
   <si>
     <t xml:space="preserve">retrofit_index6</t>
@@ -224,13 +224,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -250,18 +254,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G25"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -286,48 +292,48 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2</v>
@@ -335,22 +341,25 @@
       <c r="G3" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>3</v>
@@ -358,22 +367,25 @@
       <c r="G4" s="0" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>4</v>
@@ -381,22 +393,25 @@
       <c r="G5" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
@@ -404,22 +419,25 @@
       <c r="G6" s="0" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6</v>
@@ -427,22 +445,25 @@
       <c r="G7" s="0" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>7</v>
@@ -450,22 +471,25 @@
       <c r="G8" s="0" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>8</v>
@@ -473,22 +497,25 @@
       <c r="G9" s="0" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
@@ -496,22 +523,25 @@
       <c r="G10" s="0" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
@@ -519,13 +549,16 @@
       <c r="G11" s="0" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>11</v>
@@ -534,7 +567,7 @@
         <v>23</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>11</v>
@@ -542,13 +575,16 @@
       <c r="G12" s="0" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>12</v>
@@ -557,7 +593,7 @@
         <v>23</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>12</v>
@@ -565,13 +601,16 @@
       <c r="G13" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>13</v>
@@ -580,7 +619,7 @@
         <v>23</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>13</v>
@@ -588,13 +627,16 @@
       <c r="G14" s="0" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>14</v>
@@ -603,7 +645,7 @@
         <v>23</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>14</v>
@@ -611,13 +653,16 @@
       <c r="G15" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>15</v>
@@ -626,7 +671,7 @@
         <v>23</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>15</v>
@@ -634,13 +679,16 @@
       <c r="G16" s="0" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>16</v>
@@ -649,7 +697,7 @@
         <v>23</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>16</v>
@@ -657,13 +705,16 @@
       <c r="G17" s="0" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>17</v>
@@ -672,7 +723,7 @@
         <v>23</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>17</v>
@@ -680,13 +731,16 @@
       <c r="G18" s="0" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>18</v>
@@ -695,7 +749,7 @@
         <v>23</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>18</v>
@@ -703,13 +757,16 @@
       <c r="G19" s="0" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>19</v>
@@ -718,7 +775,7 @@
         <v>23</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>19</v>
@@ -726,13 +783,16 @@
       <c r="G20" s="0" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>20</v>
@@ -741,7 +801,7 @@
         <v>23</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>20</v>
@@ -749,22 +809,25 @@
       <c r="G21" s="0" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>21</v>
@@ -772,22 +835,25 @@
       <c r="G22" s="0" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>22</v>
@@ -795,13 +861,16 @@
       <c r="G23" s="0" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>23</v>
@@ -810,7 +879,7 @@
         <v>23</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>23</v>
@@ -818,13 +887,16 @@
       <c r="G24" s="0" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H24" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>24</v>
@@ -833,13 +905,16 @@
         <v>23</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>24</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>37</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
